--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
     <t>Ror2</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3979187290274</v>
+        <v>10.43424333333333</v>
       </c>
       <c r="H2">
-        <v>10.3979187290274</v>
+        <v>31.30273</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9711091978791583</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9711091978791584</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>8.15045737992398</v>
+        <v>0.04009133333333333</v>
       </c>
       <c r="N2">
-        <v>8.15045737992398</v>
+        <v>0.120274</v>
       </c>
       <c r="O2">
-        <v>0.9236148994433521</v>
+        <v>0.004449173663854228</v>
       </c>
       <c r="P2">
-        <v>0.9236148994433521</v>
+        <v>0.004449173663854228</v>
       </c>
       <c r="Q2">
-        <v>84.74779344085114</v>
+        <v>0.4183227275577778</v>
       </c>
       <c r="R2">
-        <v>84.74779344085114</v>
+        <v>3.76490454802</v>
       </c>
       <c r="S2">
-        <v>0.9236148994433521</v>
+        <v>0.004320633467930554</v>
       </c>
       <c r="T2">
-        <v>0.9236148994433521</v>
+        <v>0.004320633467930556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,309 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10.43424333333333</v>
+      </c>
+      <c r="H3">
+        <v>31.30273</v>
+      </c>
+      <c r="I3">
+        <v>0.9711091978791583</v>
+      </c>
+      <c r="J3">
+        <v>0.9711091978791584</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>8.212806333333333</v>
+      </c>
+      <c r="N3">
+        <v>24.638419</v>
+      </c>
+      <c r="O3">
+        <v>0.9114239564145669</v>
+      </c>
+      <c r="P3">
+        <v>0.911423956414567</v>
+      </c>
+      <c r="Q3">
+        <v>85.6944197315411</v>
+      </c>
+      <c r="R3">
+        <v>771.2497775838699</v>
+      </c>
+      <c r="S3">
+        <v>0.885092187241599</v>
+      </c>
+      <c r="T3">
+        <v>0.8850921872415991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>10.43424333333333</v>
+      </c>
+      <c r="H4">
+        <v>31.30273</v>
+      </c>
+      <c r="I4">
+        <v>0.9711091978791583</v>
+      </c>
+      <c r="J4">
+        <v>0.9711091978791584</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.7580640000000001</v>
+      </c>
+      <c r="N4">
+        <v>2.274192</v>
+      </c>
+      <c r="O4">
+        <v>0.08412686992157885</v>
+      </c>
+      <c r="P4">
+        <v>0.08412686992157886</v>
+      </c>
+      <c r="Q4">
+        <v>7.909824238240001</v>
+      </c>
+      <c r="R4">
+        <v>71.18841814416</v>
+      </c>
+      <c r="S4">
+        <v>0.08169637716962873</v>
+      </c>
+      <c r="T4">
+        <v>0.08169637716962874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>10.3979187290274</v>
-      </c>
-      <c r="H3">
-        <v>10.3979187290274</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.674061783675622</v>
-      </c>
-      <c r="N3">
-        <v>0.674061783675622</v>
-      </c>
-      <c r="O3">
-        <v>0.07638510055664789</v>
-      </c>
-      <c r="P3">
-        <v>0.07638510055664789</v>
-      </c>
-      <c r="Q3">
-        <v>7.008839645002366</v>
-      </c>
-      <c r="R3">
-        <v>7.008839645002366</v>
-      </c>
-      <c r="S3">
-        <v>0.07638510055664789</v>
-      </c>
-      <c r="T3">
-        <v>0.07638510055664789</v>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.310422</v>
+      </c>
+      <c r="H5">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J5">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.04009133333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.120274</v>
+      </c>
+      <c r="O5">
+        <v>0.004449173663854228</v>
+      </c>
+      <c r="P5">
+        <v>0.004449173663854228</v>
+      </c>
+      <c r="Q5">
+        <v>0.012445231876</v>
+      </c>
+      <c r="R5">
+        <v>0.112007086884</v>
+      </c>
+      <c r="S5">
+        <v>0.0001285401959236723</v>
+      </c>
+      <c r="T5">
+        <v>0.0001285401959236724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.310422</v>
+      </c>
+      <c r="H6">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J6">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>8.212806333333333</v>
+      </c>
+      <c r="N6">
+        <v>24.638419</v>
+      </c>
+      <c r="O6">
+        <v>0.9114239564145669</v>
+      </c>
+      <c r="P6">
+        <v>0.911423956414567</v>
+      </c>
+      <c r="Q6">
+        <v>2.549435767606</v>
+      </c>
+      <c r="R6">
+        <v>22.944921908454</v>
+      </c>
+      <c r="S6">
+        <v>0.02633176917296782</v>
+      </c>
+      <c r="T6">
+        <v>0.02633176917296782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.310422</v>
+      </c>
+      <c r="H7">
+        <v>0.9312659999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="J7">
+        <v>0.02889080212084161</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7580640000000001</v>
+      </c>
+      <c r="N7">
+        <v>2.274192</v>
+      </c>
+      <c r="O7">
+        <v>0.08412686992157885</v>
+      </c>
+      <c r="P7">
+        <v>0.08412686992157886</v>
+      </c>
+      <c r="Q7">
+        <v>0.235319743008</v>
+      </c>
+      <c r="R7">
+        <v>2.117877687072</v>
+      </c>
+      <c r="S7">
+        <v>0.002430492751950116</v>
+      </c>
+      <c r="T7">
+        <v>0.002430492751950117</v>
       </c>
     </row>
   </sheetData>
